--- a/YRD/feature_selection/correlation_YRD.xlsx
+++ b/YRD/feature_selection/correlation_YRD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\data\YRD\feature_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA2B7A8-30E5-4DDD-9247-48364DD7E444}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78070CA-B704-4681-BB41-7F57DFDB6096}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -493,6 +493,34 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -833,7 +861,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="47.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2232,26 +2260,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:U21">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
-      <formula>0.8</formula>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+      <formula>0.59</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="between">
+      <formula>0.4</formula>
       <formula>0.59</formula>
-      <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
-      <formula>0.4</formula>
-      <formula>0.6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>-0.8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
-      <formula>-0.8</formula>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>-0.59</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>-0.6</formula>
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="between">
+      <formula>-0.59</formula>
       <formula>-0.4</formula>
     </cfRule>
   </conditionalFormatting>
